--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.4948190209243</v>
+        <v>154.6529307800947</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.9710595912551</v>
+        <v>211.6029626990072</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.8446988162842</v>
+        <v>191.4078729256978</v>
       </c>
       <c r="AD2" t="n">
-        <v>123494.8190209243</v>
+        <v>154652.9307800947</v>
       </c>
       <c r="AE2" t="n">
-        <v>168971.0595912551</v>
+        <v>211602.9626990072</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.367196221801468e-06</v>
+        <v>7.38296189664129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.639756944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>152844.6988162842</v>
+        <v>191407.8729256978</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.54988608508488</v>
+        <v>105.3788544942462</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.6848842192847</v>
+        <v>144.1839977059179</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.6440812341809</v>
+        <v>130.4232793284158</v>
       </c>
       <c r="AD3" t="n">
-        <v>84549.88608508487</v>
+        <v>105378.8544942462</v>
       </c>
       <c r="AE3" t="n">
-        <v>115684.8842192847</v>
+        <v>144183.9977059179</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.573765474058877e-06</v>
+        <v>9.422727082965082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.634982638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>104644.0812341809</v>
+        <v>130423.2793284158</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.99496292641365</v>
+        <v>105.1760986141336</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.2938579889949</v>
+        <v>143.9065781657898</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.1949354020101</v>
+        <v>130.1723363198367</v>
       </c>
       <c r="AD2" t="n">
-        <v>84994.96292641365</v>
+        <v>105176.0986141336</v>
       </c>
       <c r="AE2" t="n">
-        <v>116293.8579889949</v>
+        <v>143906.5781657898</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.419818695241026e-06</v>
+        <v>9.385993278607167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>105194.9354020101</v>
+        <v>130172.3363198367</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.94810625589356</v>
+        <v>102.1292419436136</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.1250142745618</v>
+        <v>139.7377344513567</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.4239602806724</v>
+        <v>126.4013611984989</v>
       </c>
       <c r="AD3" t="n">
-        <v>81948.10625589357</v>
+        <v>102129.2419436136</v>
       </c>
       <c r="AE3" t="n">
-        <v>112125.0142745618</v>
+        <v>139737.7344513568</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.605263537791242e-06</v>
+        <v>9.707144989319748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.739149305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>101423.9602806724</v>
+        <v>126401.3611984989</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.27648800494777</v>
+        <v>109.5925600849499</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.8885177227692</v>
+        <v>149.9493755906865</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.9693328734764</v>
+        <v>135.6384176396226</v>
       </c>
       <c r="AD2" t="n">
-        <v>91276.48800494777</v>
+        <v>109592.5600849499</v>
       </c>
       <c r="AE2" t="n">
-        <v>124888.5177227691</v>
+        <v>149949.3755906865</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.106091439191729e-06</v>
+        <v>9.661823781335524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.581163194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>112969.3328734764</v>
+        <v>135638.4176396226</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.56835753674191</v>
+        <v>108.476367748666</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.5513782587733</v>
+        <v>148.4221519932532</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.8552467197277</v>
+        <v>134.2569501188561</v>
       </c>
       <c r="AD2" t="n">
-        <v>89568.35753674191</v>
+        <v>108476.367748666</v>
       </c>
       <c r="AE2" t="n">
-        <v>122551.3782587733</v>
+        <v>148422.1519932532</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.443565085451601e-06</v>
+        <v>9.916993380642565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.110243055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>110855.2467197277</v>
+        <v>134256.9501188561</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.0528113137996</v>
+        <v>122.658200756485</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.737891042421</v>
+        <v>167.826361572857</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.0197484587684</v>
+        <v>151.8092491701679</v>
       </c>
       <c r="AD2" t="n">
-        <v>105052.8113137996</v>
+        <v>122658.2007564851</v>
       </c>
       <c r="AE2" t="n">
-        <v>143737.891042421</v>
+        <v>167826.361572857</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6378807729442e-06</v>
+        <v>9.088751987616592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.238715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>130019.7484587684</v>
+        <v>151809.2491701679</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.409558804071</v>
+        <v>120.6757204380823</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.38478811277</v>
+        <v>165.1138445403607</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.2729767560853</v>
+        <v>149.3556109562107</v>
       </c>
       <c r="AD2" t="n">
-        <v>100409.558804071</v>
+        <v>120675.7204380823</v>
       </c>
       <c r="AE2" t="n">
-        <v>137384.78811277</v>
+        <v>165113.8445403607</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180462135254895e-06</v>
+        <v>8.912887748779902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>124272.9767560853</v>
+        <v>149355.6109562106</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.24919181180458</v>
+        <v>102.6006047918365</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.5369728151163</v>
+        <v>140.3826738953562</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.7966020763039</v>
+        <v>126.9847485271415</v>
       </c>
       <c r="AD3" t="n">
-        <v>82249.19181180457</v>
+        <v>102600.6047918365</v>
       </c>
       <c r="AE3" t="n">
-        <v>112536.9728151163</v>
+        <v>140382.6738953562</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.620861719237523e-06</v>
+        <v>9.670586956720045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.695746527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>101796.6020763039</v>
+        <v>126984.7485271415</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.3102888450369</v>
+        <v>136.1627152938004</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.9314037441953</v>
+        <v>186.3038341399362</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.526722404446</v>
+        <v>168.5232576887465</v>
       </c>
       <c r="AD2" t="n">
-        <v>110310.2888450369</v>
+        <v>136162.7152938004</v>
       </c>
       <c r="AE2" t="n">
-        <v>150931.4037441953</v>
+        <v>186303.8341399362</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.266925188629888e-06</v>
+        <v>8.553735855588976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.826822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>136526.722404446</v>
+        <v>168523.2576887465</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.36074494271126</v>
+        <v>99.9892484313409</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.9531164964282</v>
+        <v>136.8097009180161</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.45934537820541</v>
+        <v>123.7527750760585</v>
       </c>
       <c r="AD2" t="n">
-        <v>80360.74494271126</v>
+        <v>99989.24843134089</v>
       </c>
       <c r="AE2" t="n">
-        <v>109953.1164964282</v>
+        <v>136809.7009180161</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.573842831423868e-06</v>
+        <v>9.871689829432845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.873697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99459.34537820541</v>
+        <v>123752.7750760585</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.63830522997337</v>
+        <v>100.266808718603</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.3328867265556</v>
+        <v>137.1894711481436</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.80287087058052</v>
+        <v>124.0963005684336</v>
       </c>
       <c r="AD3" t="n">
-        <v>80638.30522997337</v>
+        <v>100266.808718603</v>
       </c>
       <c r="AE3" t="n">
-        <v>110332.8867265556</v>
+        <v>137189.4711481436</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.572449644377754e-06</v>
+        <v>9.869222391650766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.875868055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>99802.87087058052</v>
+        <v>124096.3005684336</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.32872457544727</v>
+        <v>102.3331079630983</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.6457930510701</v>
+        <v>140.0166729331496</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.8950366616684</v>
+        <v>126.6536781830822</v>
       </c>
       <c r="AD2" t="n">
-        <v>82328.72457544727</v>
+        <v>102333.1079630983</v>
       </c>
       <c r="AE2" t="n">
-        <v>112645.7930510701</v>
+        <v>140016.6729331496</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.53633301790392e-06</v>
+        <v>9.654881355030253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.821614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>101895.0366616684</v>
+        <v>126653.6781830822</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.20856181960313</v>
+        <v>101.2129452072542</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.1131369504319</v>
+        <v>138.4840168325114</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.5086551081783</v>
+        <v>125.2672966295921</v>
       </c>
       <c r="AD3" t="n">
-        <v>81208.56181960313</v>
+        <v>101212.9452072541</v>
       </c>
       <c r="AE3" t="n">
-        <v>111113.1369504319</v>
+        <v>138484.0168325114</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.615018154577253e-06</v>
+        <v>9.792101362665015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.767361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>100508.6551081783</v>
+        <v>125267.296629592</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.3548577294041</v>
+        <v>134.9444570310819</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.4653613255695</v>
+        <v>184.6369594391242</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.5325268412139</v>
+        <v>167.0154671699062</v>
       </c>
       <c r="AD2" t="n">
-        <v>114354.8577294041</v>
+        <v>134944.4570310819</v>
       </c>
       <c r="AE2" t="n">
-        <v>156465.3613255695</v>
+        <v>184636.9594391242</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.649717482674659e-06</v>
+        <v>7.904211554109894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>141532.5268412139</v>
+        <v>167015.4671699062</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.75201350180902</v>
+        <v>103.4268641495075</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.2249556343074</v>
+        <v>141.5131984005113</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.4189247808216</v>
+        <v>128.0073773602261</v>
       </c>
       <c r="AD3" t="n">
-        <v>82752.01350180902</v>
+        <v>103426.8641495075</v>
       </c>
       <c r="AE3" t="n">
-        <v>113224.9556343074</v>
+        <v>141513.1984005113</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.644485603790944e-06</v>
+        <v>9.5952514303788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.617621527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>102418.9247808216</v>
+        <v>128007.377360226</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.56474730846853</v>
+        <v>108.6957886847557</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.5464385851776</v>
+        <v>148.7223733981794</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.8507784816472</v>
+        <v>134.5285188142597</v>
       </c>
       <c r="AD2" t="n">
-        <v>89564.74730846852</v>
+        <v>108695.7886847557</v>
       </c>
       <c r="AE2" t="n">
-        <v>122546.4385851776</v>
+        <v>148722.3733981794</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.508000103508354e-06</v>
+        <v>9.932227599453167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110850.7784816472</v>
+        <v>134528.5188142597</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.22600279475469</v>
+        <v>108.6441924476863</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.451197514047</v>
+        <v>148.6517771503559</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.6691884881827</v>
+        <v>134.4646601732459</v>
       </c>
       <c r="AD2" t="n">
-        <v>90226.00279475469</v>
+        <v>108644.1924476863</v>
       </c>
       <c r="AE2" t="n">
-        <v>123451.197514047</v>
+        <v>148651.7771503559</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.253462863678321e-06</v>
+        <v>9.801282472370598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111669.1884881827</v>
+        <v>134464.6601732459</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.39532165462259</v>
+        <v>120.2104487395287</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.7875993985962</v>
+        <v>164.4772392760614</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.5917302630502</v>
+        <v>148.7797624048547</v>
       </c>
       <c r="AD2" t="n">
-        <v>93395.32165462259</v>
+        <v>120210.4487395287</v>
       </c>
       <c r="AE2" t="n">
-        <v>127787.5993985962</v>
+        <v>164477.2392760614</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.892050203463018e-06</v>
+        <v>9.407593956130253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.867621527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>115591.7302630502</v>
+        <v>148779.7624048547</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7552045284343</v>
+        <v>162.2781306742727</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1685511144564</v>
+        <v>222.0360975942937</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3552718502563</v>
+        <v>200.8452840695783</v>
       </c>
       <c r="AD2" t="n">
-        <v>128755.2045284343</v>
+        <v>162278.1306742727</v>
       </c>
       <c r="AE2" t="n">
-        <v>176168.5511144564</v>
+        <v>222036.0975942937</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.730219265813381e-06</v>
+        <v>7.693947726200905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.851128472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>159355.2718502563</v>
+        <v>200845.2840695783</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.15388983191404</v>
+        <v>100.9743417722886</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.0383323249179</v>
+        <v>138.157549086351</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4409897311344</v>
+        <v>124.9719865069248</v>
       </c>
       <c r="AD2" t="n">
-        <v>81153.88983191404</v>
+        <v>100974.3417722885</v>
       </c>
       <c r="AE2" t="n">
-        <v>111038.3323249179</v>
+        <v>138157.549086351</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.568065631743526e-06</v>
+        <v>9.782871667169099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.838975694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>100440.9897311344</v>
+        <v>124971.9865069248</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.02274552605124</v>
+        <v>100.8431974664257</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.858894899958</v>
+        <v>137.9781116613912</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.2786775621706</v>
+        <v>124.809674337961</v>
       </c>
       <c r="AD3" t="n">
-        <v>81022.74552605124</v>
+        <v>100843.1974664257</v>
       </c>
       <c r="AE3" t="n">
-        <v>110858.894899958</v>
+        <v>137978.1116613912</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.590813733348223e-06</v>
+        <v>9.82283918432654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.821614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100278.6775621706</v>
+        <v>124809.674337961</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.1944718329448</v>
+        <v>126.6250340317551</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.2999613312222</v>
+        <v>173.2539578644117</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.4327369515862</v>
+        <v>156.7188432893376</v>
       </c>
       <c r="AD2" t="n">
-        <v>106194.4718329448</v>
+        <v>126625.0340317551</v>
       </c>
       <c r="AE2" t="n">
-        <v>145299.9613312222</v>
+        <v>173253.9578644117</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.945748798247652e-06</v>
+        <v>8.456679278909759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.164496527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>131432.7369515862</v>
+        <v>156718.8432893376</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.95107242857075</v>
+        <v>103.4668859734016</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.4973168397628</v>
+        <v>141.5679580256015</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.6652922150897</v>
+        <v>128.0569108035533</v>
       </c>
       <c r="AD3" t="n">
-        <v>82951.07242857075</v>
+        <v>103466.8859734016</v>
       </c>
       <c r="AE3" t="n">
-        <v>113497.3168397628</v>
+        <v>141567.9580256015</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.607453130151809e-06</v>
+        <v>9.588119944549991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>102665.2922150897</v>
+        <v>128056.9108035533</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.6825037903668</v>
+        <v>207.2343071659064</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.0083081340446</v>
+        <v>283.5471215966467</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.1976906560678</v>
+        <v>256.4857822724307</v>
       </c>
       <c r="AD2" t="n">
-        <v>174682.5037903668</v>
+        <v>207234.3071659064</v>
       </c>
       <c r="AE2" t="n">
-        <v>239008.3081340446</v>
+        <v>283547.1215966467</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.929849175660637e-06</v>
+        <v>6.280016244024453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.032118055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>216197.6906560678</v>
+        <v>256485.7822724307</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.73398147022112</v>
+        <v>108.4052180743591</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.7779922313717</v>
+        <v>148.3248018699644</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.0602329728361</v>
+        <v>134.1688909547022</v>
       </c>
       <c r="AD2" t="n">
-        <v>89733.98147022113</v>
+        <v>108405.2180743591</v>
       </c>
       <c r="AE2" t="n">
-        <v>122777.9922313717</v>
+        <v>148324.8018699644</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.362815870577438e-06</v>
+        <v>9.880626439724098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.229600694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>111060.2329728362</v>
+        <v>134168.8909547022</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.11128494600459</v>
+        <v>99.53881342780907</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.6117943235359</v>
+        <v>136.1933958743943</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.15059851444521</v>
+        <v>123.1952893208102</v>
       </c>
       <c r="AD2" t="n">
-        <v>80111.28494600458</v>
+        <v>99538.81342780907</v>
       </c>
       <c r="AE2" t="n">
-        <v>109611.7943235359</v>
+        <v>136193.3958743943</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.54208589555925e-06</v>
+        <v>9.900532000517146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.940972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>99150.59851444521</v>
+        <v>123195.2893208102</v>
       </c>
     </row>
   </sheetData>
